--- a/biology/Botanique/Silene_maritima/Silene_maritima.xlsx
+++ b/biology/Botanique/Silene_maritima/Silene_maritima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Silène à une fleur (Silene uniflora) est une espèce de plantes présente dans les zones littorales de l'ouest de la France[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Silène à une fleur (Silene uniflora) est une espèce de plantes présente dans les zones littorales de l'ouest de la France.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Silene vulgaris subsp. maritima
 Silene maritima</t>
@@ -542,9 +556,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est protégée dans le Nord-Pas-de-Calais.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (14 juillet 2013)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (14 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 Silene uniflora subsp. cratericola (Franco) Franco
 Silene uniflora subsp. glareosa (Jord.) Chater &amp; Walters
 Silene uniflora subsp. petraea (Hartm.) Jonsell &amp; H.C. Prentice
